--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="84" windowWidth="14340" windowHeight="4452" firstSheet="22" activeTab="24"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -33,12 +38,12 @@
     <sheet name="PayrollForNIDirctrAsCandRNov" sheetId="14" r:id="rId24"/>
     <sheet name="TestReportsNovember" sheetId="38" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="91">
   <si>
     <t>TC</t>
   </si>
@@ -308,12 +313,15 @@
   </si>
   <si>
     <t>Monthly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,13 +427,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -474,7 +485,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,9 +518,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,6 +570,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,22 +762,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -760,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>67</v>
       </c>
@@ -774,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>68</v>
       </c>
@@ -788,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
@@ -802,7 +847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
@@ -816,7 +861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
@@ -830,7 +875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>38</v>
       </c>
@@ -844,7 +889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>71</v>
       </c>
@@ -858,7 +903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>72</v>
       </c>
@@ -872,7 +917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
@@ -886,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>73</v>
       </c>
@@ -900,7 +945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
@@ -914,7 +959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>57</v>
       </c>
@@ -928,7 +973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>75</v>
       </c>
@@ -942,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>76</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
@@ -970,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>78</v>
       </c>
@@ -984,7 +1029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>77</v>
       </c>
@@ -998,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>59</v>
       </c>
@@ -1012,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>79</v>
       </c>
@@ -1026,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>80</v>
       </c>
@@ -1040,7 +1085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>60</v>
       </c>
@@ -1054,7 +1099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>81</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>82</v>
       </c>
@@ -1082,7 +1127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>61</v>
       </c>
@@ -1103,29 +1148,29 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1169,7 +1214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1212,31 +1257,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -1295,29 +1340,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1395,37 +1440,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1509,33 +1554,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -1594,28 +1639,28 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1693,36 +1738,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +1811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1806,31 +1851,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +1904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -1889,28 +1934,28 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -1988,37 +2033,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2062,7 +2107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2102,34 +2147,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2158,7 +2203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2189,24 +2234,24 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2280,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2265,28 +2310,28 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2327,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2364,36 +2409,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2437,7 +2482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2477,33 +2522,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2532,7 +2577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -2562,28 +2607,28 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2624,7 +2669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2661,36 +2706,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.77734375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2734,7 +2779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2757,7 +2802,7 @@
         <v>87</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>88</v>
@@ -2774,35 +2819,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2843,7 +2888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2880,36 +2925,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -2953,7 +2998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -2993,31 +3038,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3046,7 +3091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3070,35 +3115,35 @@
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.21875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -3139,7 +3184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -3176,37 +3221,37 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -3250,7 +3295,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -3290,32 +3335,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3344,7 +3389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>83</v>
       </c>
@@ -3375,28 +3420,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -3437,7 +3482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>28</v>
       </c>
@@ -3474,7 +3519,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="22" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="90">
   <si>
     <t>TC</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
   </si>
   <si>
     <t>TestReportWorksheetNo</t>
@@ -321,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +424,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -762,7 +759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -807,7 +804,7 @@
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>13</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -835,7 +832,7 @@
     </row>
     <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -849,7 +846,7 @@
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
@@ -863,10 +860,10 @@
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -877,7 +874,7 @@
     </row>
     <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -891,7 +888,7 @@
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -905,10 +902,10 @@
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -947,10 +944,10 @@
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -975,7 +972,7 @@
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>13</v>
@@ -989,10 +986,10 @@
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -1003,7 +1000,7 @@
     </row>
     <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -1017,7 +1014,7 @@
     </row>
     <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>13</v>
@@ -1031,10 +1028,10 @@
     </row>
     <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1045,7 +1042,7 @@
     </row>
     <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -1059,7 +1056,7 @@
     </row>
     <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
@@ -1073,10 +1070,10 @@
     </row>
     <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1087,7 +1084,7 @@
     </row>
     <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1101,7 +1098,7 @@
     </row>
     <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
@@ -1115,10 +1112,10 @@
     </row>
     <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1129,7 +1126,7 @@
     </row>
     <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1148,11 +1145,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,7 +1199,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1219,28 +1216,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -1252,20 +1249,20 @@
         <v>4</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1312,16 +1309,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>0.12</v>
@@ -1340,11 +1337,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,28 +1405,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -1440,18 +1437,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1519,28 +1516,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -1554,15 +1551,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1611,16 +1608,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>30000</v>
@@ -1639,11 +1636,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,28 +1703,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -1738,18 +1735,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1796,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -1816,7 +1813,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -1825,19 +1822,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -1851,16 +1848,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-0F00-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1906,16 +1903,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -1934,11 +1931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,28 +1998,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2033,18 +2030,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2092,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2112,28 +2109,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2147,15 +2144,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1200-000001000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2205,16 +2202,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>97968.48</v>
@@ -2234,7 +2231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2282,16 +2279,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
@@ -2310,11 +2307,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2377,28 +2374,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2409,18 +2406,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2467,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2487,7 +2484,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>29</v>
@@ -2496,19 +2493,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2522,16 +2519,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1500-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0" xr:uid="{00000000-0004-0000-1500-000002000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -2579,16 +2576,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>546000</v>
@@ -2607,11 +2604,11 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,28 +2671,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2706,17 +2703,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1700-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2767,7 +2764,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -2784,28 +2781,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -2819,18 +2816,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-1800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2893,10 +2890,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -2905,13 +2902,13 @@
         <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>31</v>
@@ -2925,18 +2922,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,7 +2983,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -3003,10 +3000,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
@@ -3015,16 +3012,16 @@
         <v>30</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -3038,14 +3035,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3093,16 +3090,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>0.12</v>
@@ -3122,11 +3119,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,28 +3186,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -3221,18 +3218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3283,7 +3280,7 @@
         <v>27</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>2</v>
@@ -3300,28 +3297,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
       <c r="H2" s="10" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -3335,14 +3332,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3391,16 +3388,16 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>85</v>
       </c>
       <c r="E2" s="6">
         <v>0.6</v>
@@ -3420,11 +3417,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,28 +3484,28 @@
         <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>32</v>
@@ -3519,7 +3516,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="90" windowWidth="14340" windowHeight="4455" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -38,12 +33,12 @@
     <sheet name="PayrollForNIDirctrAsCandRNov" sheetId="14" r:id="rId24"/>
     <sheet name="TestReportsNovember" sheetId="38" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="89">
   <si>
     <t>TC</t>
   </si>
@@ -129,12 +124,6 @@
     <t>PayrollView</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>Payroll-0903</t>
-  </si>
-  <si>
     <t>April-2017</t>
   </si>
   <si>
@@ -291,9 +280,6 @@
     <t>PayrollForNIDirctrAsCandRNov</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
     <t>B Married women and widows entitled to pay reduced NI (attach form CA4139/CF383/CF380A)</t>
   </si>
   <si>
@@ -309,16 +295,22 @@
     <t>24</t>
   </si>
   <si>
-    <t>Monthly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll NI Director's calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 602</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO DIRCNR EMPLOYER</t>
+  </si>
+  <si>
+    <t>DIRCNR_Payroll</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -397,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -408,7 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -420,6 +410,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -482,7 +474,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,26 +507,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,23 +542,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,15 +724,15 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +747,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -798,41 +756,41 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -844,26 +802,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>61</v>
+      <c r="D6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>4</v>
@@ -872,9 +830,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>37</v>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -882,30 +840,30 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>61</v>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
@@ -914,9 +872,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
+    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -924,30 +882,30 @@
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>61</v>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -956,9 +914,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>56</v>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -966,30 +924,30 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>61</v>
+      <c r="D15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
@@ -998,9 +956,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>57</v>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>11</v>
@@ -1008,30 +966,30 @@
       <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>61</v>
+      <c r="D18" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>4</v>
@@ -1040,9 +998,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>58</v>
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>11</v>
@@ -1050,30 +1008,30 @@
       <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="5" t="s">
+      <c r="D20" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>61</v>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>4</v>
@@ -1082,9 +1040,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>59</v>
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>11</v>
@@ -1092,30 +1050,30 @@
       <c r="C23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="5" t="s">
+      <c r="D23" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
+      <c r="D24" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>4</v>
@@ -1124,9 +1082,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>60</v>
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>11</v>
@@ -1134,7 +1092,7 @@
       <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1148,114 +1106,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>64</v>
+      <c r="I2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1266,19 +1224,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1307,29 +1265,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1341,103 +1299,103 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1448,111 +1406,111 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1563,21 +1521,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1606,29 +1564,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>30000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,103 +1597,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1745,112 +1703,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1861,18 +1818,18 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1901,29 +1858,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1934,103 +1891,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,112 +1997,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2155,23 +2112,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" style="5" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.140625" style="5" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2200,29 +2157,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>97968.48</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2235,20 +2192,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2277,29 +2234,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,103 +2267,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,112 +2373,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
-    <hyperlink ref="C2" r:id="rId3" display="https://eu2.salesforce.com/a2Qb0000000E8HTEA0"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2531,21 +2487,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2574,29 +2530,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>546000</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2607,103 +2563,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2713,110 +2669,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2826,103 +2782,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2932,110 +2888,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3046,20 +3002,20 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3088,31 +3044,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3122,103 +3078,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3229,110 +3185,110 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="K1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3343,21 +3299,21 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3386,29 +3342,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="6">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="5">
         <v>0.6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="16"/>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3420,103 +3376,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="11" t="s">
+      <c r="I2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
@@ -4,41 +4,41 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="96" windowWidth="14340" windowHeight="4452" activeTab="1"/>
+    <workbookView activeTab="3" windowHeight="4452" windowWidth="14340" xWindow="396" yWindow="96"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth1" sheetId="2" r:id="rId2"/>
-    <sheet name="PayrollForNIDirctrAsCandRApril" sheetId="3" r:id="rId3"/>
-    <sheet name="TestReportsApril" sheetId="5" r:id="rId4"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth2" sheetId="28" r:id="rId5"/>
-    <sheet name="PayrollForNIDirctrAsCandRMay" sheetId="7" r:id="rId6"/>
-    <sheet name="TestReportsMay" sheetId="6" r:id="rId7"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth3" sheetId="29" r:id="rId8"/>
-    <sheet name="PayrollForNIDirctrAsCandRJune" sheetId="9" r:id="rId9"/>
-    <sheet name="TestReportsJune" sheetId="8" r:id="rId10"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth4" sheetId="30" r:id="rId11"/>
-    <sheet name="PayrollForNIDirctrAsCandRJuly" sheetId="10" r:id="rId12"/>
-    <sheet name="TestReportsJuly" sheetId="19" r:id="rId13"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth5" sheetId="31" r:id="rId14"/>
-    <sheet name="PayrollForNIDirctrAsCandRAug" sheetId="11" r:id="rId15"/>
-    <sheet name="TestReportsAugust" sheetId="20" r:id="rId16"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth6" sheetId="32" r:id="rId17"/>
-    <sheet name="PayrollForNIDirctrAsCandRSep" sheetId="12" r:id="rId18"/>
-    <sheet name="TestReportsSeptember" sheetId="21" r:id="rId19"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth7" sheetId="33" r:id="rId20"/>
-    <sheet name="PayrollForNIDirctrAsCandROct" sheetId="13" r:id="rId21"/>
-    <sheet name="TestReportsOctober" sheetId="22" r:id="rId22"/>
-    <sheet name="NIDirector_CeseAndRecomncMnth8" sheetId="34" r:id="rId23"/>
-    <sheet name="PayrollForNIDirctrAsCandRNov" sheetId="14" r:id="rId24"/>
-    <sheet name="TestReportsNovember" sheetId="38" r:id="rId25"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth1" r:id="rId2" sheetId="2"/>
+    <sheet name="PayrollForNIDirctrAsCandRApril" r:id="rId3" sheetId="3"/>
+    <sheet name="TestReportsApril" r:id="rId4" sheetId="5"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth2" r:id="rId5" sheetId="28"/>
+    <sheet name="PayrollForNIDirctrAsCandRMay" r:id="rId6" sheetId="7"/>
+    <sheet name="TestReportsMay" r:id="rId7" sheetId="6"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth3" r:id="rId8" sheetId="29"/>
+    <sheet name="PayrollForNIDirctrAsCandRJune" r:id="rId9" sheetId="9"/>
+    <sheet name="TestReportsJune" r:id="rId10" sheetId="8"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth4" r:id="rId11" sheetId="30"/>
+    <sheet name="PayrollForNIDirctrAsCandRJuly" r:id="rId12" sheetId="10"/>
+    <sheet name="TestReportsJuly" r:id="rId13" sheetId="19"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth5" r:id="rId14" sheetId="31"/>
+    <sheet name="PayrollForNIDirctrAsCandRAug" r:id="rId15" sheetId="11"/>
+    <sheet name="TestReportsAugust" r:id="rId16" sheetId="20"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth6" r:id="rId17" sheetId="32"/>
+    <sheet name="PayrollForNIDirctrAsCandRSep" r:id="rId18" sheetId="12"/>
+    <sheet name="TestReportsSeptember" r:id="rId19" sheetId="21"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth7" r:id="rId20" sheetId="33"/>
+    <sheet name="PayrollForNIDirctrAsCandROct" r:id="rId21" sheetId="13"/>
+    <sheet name="TestReportsOctober" r:id="rId22" sheetId="22"/>
+    <sheet name="NIDirector_CeseAndRecomncMnth8" r:id="rId23" sheetId="34"/>
+    <sheet name="PayrollForNIDirctrAsCandRNov" r:id="rId24" sheetId="14"/>
+    <sheet name="TestReportsNovember" r:id="rId25" sheetId="38"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="89">
   <si>
     <t>TC</t>
   </si>
@@ -311,6 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,50 +377,50 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,10 +437,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -597,7 +598,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -606,13 +607,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -622,7 +623,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -631,7 +632,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -640,7 +641,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -650,12 +651,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -686,7 +687,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -705,7 +706,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -717,7 +718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -726,13 +727,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="54.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row ht="15" r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -760,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>64</v>
       </c>
@@ -774,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>65</v>
       </c>
@@ -788,7 +789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.2" r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>34</v>
       </c>
@@ -802,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="6" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>66</v>
       </c>
@@ -816,7 +817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>67</v>
       </c>
@@ -830,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="19.95" r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -844,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="9" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>68</v>
       </c>
@@ -858,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="10" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>69</v>
       </c>
@@ -872,7 +873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="25.95" r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>37</v>
       </c>
@@ -886,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="12" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>70</v>
       </c>
@@ -900,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="13" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>71</v>
       </c>
@@ -914,7 +915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="14" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>54</v>
       </c>
@@ -928,7 +929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="15" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
@@ -942,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="16" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
@@ -956,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="4" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="17" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>55</v>
       </c>
@@ -970,7 +971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="18" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>75</v>
       </c>
@@ -984,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="19" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>74</v>
       </c>
@@ -998,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="23.4" r="20" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="21" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>76</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="22" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>77</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="24" r="23" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>57</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="24" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>78</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="25" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>79</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27" r="26" s="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>58</v>
       </c>
@@ -1097,13 +1098,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1112,20 +1113,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1212,15 +1213,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1229,14 +1230,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.6640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -1290,12 +1291,12 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1304,20 +1305,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="74.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="74.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1395,14 +1396,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1411,21 +1412,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1509,15 +1510,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1526,16 +1527,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -1589,12 +1590,12 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1603,19 +1604,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="77.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.88671875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="77.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1693,14 +1694,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,20 +1710,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1806,15 +1807,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1823,13 +1824,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -1883,12 +1884,12 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1897,19 +1898,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -1987,14 +1988,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2003,21 +2004,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="60.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2101,34 +2102,34 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" style="4" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.33203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="4" width="15.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="15" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -2182,13 +2183,13 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2197,15 +2198,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -2259,12 +2260,12 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2273,19 +2274,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2326,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2363,14 +2364,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2379,20 +2380,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.5546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="22.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2476,15 +2477,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2493,15 +2494,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -2555,12 +2556,12 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2569,19 +2570,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="50" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="55.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="50.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2659,14 +2660,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2675,20 +2676,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2772,14 +2773,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2788,19 +2789,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.5546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.5546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.5546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="59" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.5546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.5546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="59.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2841,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2878,36 +2879,36 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="53" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="57.88671875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="57.88671875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -2991,14 +2992,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3007,15 +3008,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3044,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -3068,14 +3069,14 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row customFormat="1" r="3" s="4" spans="1:9" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3084,19 +3085,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.33203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.33203125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -3174,14 +3175,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3190,21 +3191,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="43" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="65.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.44140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="34.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="65.109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.88671875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="34.200000000000003" r="2" s="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -3288,14 +3289,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3304,16 +3305,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.5546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="15.88671875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>86</v>
       </c>
@@ -3367,13 +3368,13 @@
       <c r="H2" s="14"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3382,19 +3383,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="58.44140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.5546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="58.44140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="26.4" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36" r="2" s="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>87</v>
       </c>
@@ -3472,8 +3473,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite NI Director Cease and recommence201718.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="89">
   <si>
     <t>TC</t>
   </si>
